--- a/biology/Zoologie/Eumeces_schneideri/Eumeces_schneideri.xlsx
+++ b/biology/Zoologie/Eumeces_schneideri/Eumeces_schneideri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eumeces schneideri est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eumeces schneideri est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Algérie, en Tunisie, en Libye et en Égypte ;
 au Moyen-Orient ;
 en Transcaucasie et au Daghestan ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 décembre 2013) :
 Eumeces schneideri barani Kumlutas, Arikan, Ilgaz &amp; Kaska, 2007
 Eumeces schneideri pavimentatus (Geoffroy Saint-Hilaire, 1827)
 Eumeces schneideri princeps (Eichwald, 1839)
@@ -580,9 +596,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Gottlob Schneider[1],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Gottlob Schneider,.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1839 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. vol. 5, Roret/Fain et Thunot, Paris, p. 1-871 (texte intégral).
 Daudin, 1802 : Histoire Naturelle, Générale et Particulière des Reptiles; Ouvrage faisant suite à l'Histoire Naturelle générale et particulière, composée par Leclerc de Buffon; et rédigée par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 4, F. Dufart, Paris, p. 1-397 (texte intégral).
